--- a/src/main/resources/template/template.xlsx
+++ b/src/main/resources/template/template.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="指示者信息" sheetId="1" r:id="rId1"/>
+    <sheet name="指示者关系人员" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>地址</t>
   </si>
@@ -35,9 +36,6 @@
     <t>性别</t>
   </si>
   <si>
-    <t>健康状况</t>
-  </si>
-  <si>
     <t>是否从本村迁出</t>
   </si>
   <si>
@@ -50,17 +48,55 @@
     <t>身份证号码</t>
   </si>
   <si>
-    <t>电话号码</t>
-  </si>
-  <si>
-    <t>是否和其他指示者有亲属关系</t>
-  </si>
-  <si>
     <t>其他指示者名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>与其他指示者亲属关系</t>
+  </si>
+  <si>
+    <t>目前状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该指示者与本村其他指示者是否有亲属关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示者编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否本村居住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -83,12 +119,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -118,12 +160,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,69 +478,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="14.25" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="11.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="27.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="19.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="19.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/template.xlsx
+++ b/src/main/resources/template/template.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="2550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="指示者信息" sheetId="1" r:id="rId1"/>
     <sheet name="指示者关系人员" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>地址</t>
   </si>
@@ -96,6 +97,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲缘关系代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,22 +559,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="3" max="4" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -580,18 +585,21 @@
         <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/main/resources/template/template.xlsx
+++ b/src/main/resources/template/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>地址</t>
   </si>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>亲缘关系代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲缘关系录入代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,22 +563,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="4" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="3" max="5" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -588,18 +592,21 @@
         <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/main/resources/template/template.xlsx
+++ b/src/main/resources/template/template.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="2550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="2550"/>
   </bookViews>
   <sheets>
     <sheet name="指示者信息" sheetId="1" r:id="rId1"/>
     <sheet name="指示者关系人员" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -171,7 +170,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -181,6 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,70 +486,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="19.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="19.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.75" style="4" customWidth="1"/>
+    <col min="2" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="11" style="4" customWidth="1"/>
+    <col min="5" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="14.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4"/>
+    <col min="10" max="10" width="19.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="19.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -565,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -579,34 +578,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/main/resources/template/template.xlsx
+++ b/src/main/resources/template/template.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="2550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="指示者信息" sheetId="1" r:id="rId1"/>
     <sheet name="指示者关系人员" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>地址</t>
   </si>
@@ -104,6 +105,10 @@
   </si>
   <si>
     <t>亲缘关系录入代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现住址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -562,10 +567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -574,10 +579,10 @@
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="5" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="9" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -606,6 +611,9 @@
         <v>21</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
